--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H325"/>
+  <dimension ref="A1:H330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9835,6 +9835,156 @@
       </c>
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>333.4423076923077</v>
+      </c>
+      <c r="C326" t="n">
+        <v>329.4142857142857</v>
+      </c>
+      <c r="D326" t="n">
+        <v>335.5123076923077</v>
+      </c>
+      <c r="E326" t="n">
+        <v>333.1866666666667</v>
+      </c>
+      <c r="F326" t="n">
+        <v>330.6018181818182</v>
+      </c>
+      <c r="G326" t="n">
+        <v>342.4533333333333</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>333.0984615384615</v>
+      </c>
+      <c r="C327" t="n">
+        <v>327.7471428571428</v>
+      </c>
+      <c r="D327" t="n">
+        <v>332.6584615384616</v>
+      </c>
+      <c r="E327" t="n">
+        <v>325.4866666666667</v>
+      </c>
+      <c r="F327" t="n">
+        <v>311.7527272727273</v>
+      </c>
+      <c r="G327" t="n">
+        <v>286.6633333333334</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>337.2884615384615</v>
+      </c>
+      <c r="C328" t="n">
+        <v>332.6942857142857</v>
+      </c>
+      <c r="D328" t="n">
+        <v>339.1684615384615</v>
+      </c>
+      <c r="E328" t="n">
+        <v>338.5166666666667</v>
+      </c>
+      <c r="F328" t="n">
+        <v>331.0109090909091</v>
+      </c>
+      <c r="G328" t="n">
+        <v>319.6533333333333</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>341.6715384615384</v>
+      </c>
+      <c r="C329" t="n">
+        <v>333.0671428571428</v>
+      </c>
+      <c r="D329" t="n">
+        <v>338.3415384615384</v>
+      </c>
+      <c r="E329" t="n">
+        <v>337.6233333333333</v>
+      </c>
+      <c r="F329" t="n">
+        <v>339.39</v>
+      </c>
+      <c r="G329" t="n">
+        <v>325.8066666666667</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>330.1523076923077</v>
+      </c>
+      <c r="C330" t="n">
+        <v>329.6528571428572</v>
+      </c>
+      <c r="D330" t="n">
+        <v>331.9823076923077</v>
+      </c>
+      <c r="E330" t="n">
+        <v>331.9166666666667</v>
+      </c>
+      <c r="F330" t="n">
+        <v>335.0109090909091</v>
+      </c>
+      <c r="G330" t="n">
+        <v>330.0033333333333</v>
+      </c>
+      <c r="H330" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -9851,7 +10001,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B403"/>
+  <dimension ref="A1:B408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13889,6 +14039,56 @@
       </c>
       <c r="B403" t="n">
         <v>0.27</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>-0.16</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -14057,28 +14257,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.07915553928709265</v>
+        <v>0.0953653761678239</v>
       </c>
       <c r="J2" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K2" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002999664078913722</v>
+        <v>0.004474971019332585</v>
       </c>
       <c r="M2" t="n">
-        <v>7.625473305707193</v>
+        <v>7.57764166154958</v>
       </c>
       <c r="N2" t="n">
-        <v>100.6250992693761</v>
+        <v>99.5442233869271</v>
       </c>
       <c r="O2" t="n">
-        <v>10.03120627189852</v>
+        <v>9.977185143462414</v>
       </c>
       <c r="P2" t="n">
-        <v>328.3882408160908</v>
+        <v>328.2172296995006</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -14134,28 +14334,28 @@
         <v>0.0764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1130151263007576</v>
+        <v>0.1293920869511665</v>
       </c>
       <c r="J3" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K3" t="n">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005237719485322923</v>
+        <v>0.007066557350418723</v>
       </c>
       <c r="M3" t="n">
-        <v>8.467993681327222</v>
+        <v>8.403162501836173</v>
       </c>
       <c r="N3" t="n">
-        <v>117.3142233795113</v>
+        <v>115.828957527453</v>
       </c>
       <c r="O3" t="n">
-        <v>10.83116906799591</v>
+        <v>10.76238623760795</v>
       </c>
       <c r="P3" t="n">
-        <v>322.7379446527174</v>
+        <v>322.5657465018196</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -14211,28 +14411,28 @@
         <v>0.0741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1376724024725678</v>
+        <v>0.1606180136879377</v>
       </c>
       <c r="J4" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K4" t="n">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L4" t="n">
-        <v>0.008824123861994604</v>
+        <v>0.01227957666735313</v>
       </c>
       <c r="M4" t="n">
-        <v>8.096265037887637</v>
+        <v>8.07578971813529</v>
       </c>
       <c r="N4" t="n">
-        <v>101.9380033279605</v>
+        <v>101.1457754410138</v>
       </c>
       <c r="O4" t="n">
-        <v>10.09643517920857</v>
+        <v>10.05712560531158</v>
       </c>
       <c r="P4" t="n">
-        <v>325.1468377580539</v>
+        <v>324.9040021898342</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -14288,28 +14488,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004052182161933425</v>
+        <v>0.01875600856131114</v>
       </c>
       <c r="J5" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L5" t="n">
-        <v>7.779009762454159e-06</v>
+        <v>0.0001711295989431649</v>
       </c>
       <c r="M5" t="n">
-        <v>7.905023174195401</v>
+        <v>7.868273907107361</v>
       </c>
       <c r="N5" t="n">
-        <v>100.5596503098739</v>
+        <v>99.60635881319561</v>
       </c>
       <c r="O5" t="n">
-        <v>10.02794347360783</v>
+        <v>9.980298533270215</v>
       </c>
       <c r="P5" t="n">
-        <v>328.7396584973983</v>
+        <v>328.5829425876294</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -14365,28 +14565,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02301883501616755</v>
+        <v>-0.004145799883214805</v>
       </c>
       <c r="J6" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K6" t="n">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001803775403399488</v>
+        <v>5.968203361517155e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>9.554509653927902</v>
+        <v>9.569567963229588</v>
       </c>
       <c r="N6" t="n">
-        <v>146.0327509452429</v>
+        <v>145.6187522710264</v>
       </c>
       <c r="O6" t="n">
-        <v>12.08440114135752</v>
+        <v>12.06725951784524</v>
       </c>
       <c r="P6" t="n">
-        <v>324.3653822417226</v>
+        <v>324.1687214300657</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -14442,28 +14642,28 @@
         <v>0.0152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2541821161485353</v>
+        <v>0.2908701210178344</v>
       </c>
       <c r="J7" t="n">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K7" t="n">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00713608539782673</v>
+        <v>0.009495563521026207</v>
       </c>
       <c r="M7" t="n">
-        <v>16.53620584056645</v>
+        <v>16.58937697958342</v>
       </c>
       <c r="N7" t="n">
-        <v>448.787178355967</v>
+        <v>448.8172152652053</v>
       </c>
       <c r="O7" t="n">
-        <v>21.18459766802209</v>
+        <v>21.18530658888857</v>
       </c>
       <c r="P7" t="n">
-        <v>304.0992948156555</v>
+        <v>303.7192097205954</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -14500,7 +14700,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H325"/>
+  <dimension ref="A1:H330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27442,6 +27642,216 @@
         </is>
       </c>
     </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>-35.118287462258294,173.9633491406743</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>-35.118652001221996,173.96413074719544</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>-35.11893907030499,173.96497296827</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>-35.11924867265098,173.96583422703097</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>-35.119404236138564,173.96679290953705</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>-35.11923056928735,173.9677209947561</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-20 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>-35.11829023573422,173.9633474545225</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>-35.11866544848968,173.964122571912</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>-35.118962528828696,173.964960099306</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>-35.1193155389553,173.9658114932243</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>-35.1195740999374,173.9667862857609</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>-35.11973122472038,173.96778034763744</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:26+00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>-35.11825643903603,173.96336800142524</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>-35.11862554455662,173.96414683155</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>-35.11890901683587,173.96498945510194</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>-35.11920238727153,173.96584996352806</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>-35.119400549502586,173.96679305329585</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>-35.1194351748515,173.96774525072146</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>-35.11822108496848,173.9633894951198</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>-35.118622537069704,173.96414865995382</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>-35.11891581411764,173.96498572622767</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>-35.11921014492126,173.96584732601755</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>-35.11932503900459,173.9667959977935</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>-35.119379955281005,173.9677387044346</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-29 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>-35.11831399952033,173.9633330071768</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>-35.11865007689143,173.96413191709442</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>-35.118968086791405,173.96495705029704</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>-35.11925970124953,173.96583047743158</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>-35.11936450239506,173.96679445893696</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>-35.119342294695784,173.96773423977325</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -14102,7 +14102,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14193,35 +14193,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -14280,27 +14285,28 @@
       <c r="P2" t="n">
         <v>328.2172296995006</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (173.96171395430247 -35.12097700963321, 173.96625606716185 -35.11350567905425)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>173.9617139543025</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-35.12097700963321</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>173.9662560671619</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-35.11350567905425</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173.9639850107322</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-35.11724134434373</v>
       </c>
     </row>
@@ -14357,27 +14363,28 @@
       <c r="P3" t="n">
         <v>322.5657465018196</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (173.96251532420763 -35.121309064867226, 173.96705740048372 -35.11383772651754)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>173.9625153242076</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-35.12130906486723</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>173.9670574004837</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-35.11383772651754</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>173.9647863623457</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-35.11757339569238</v>
       </c>
     </row>
@@ -14434,27 +14441,28 @@
       <c r="P4" t="n">
         <v>324.9040021898342</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (173.9634599793523 -35.121696961534965, 173.96763651132605 -35.11408344872234)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>173.9634599793523</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-35.12169696153497</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>173.967636511326</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-35.11408344872234</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>173.9655482453392</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-35.11789020512865</v>
       </c>
     </row>
@@ -14511,27 +14519,28 @@
       <c r="P5" t="n">
         <v>328.5829425876294</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (173.96485047969773 -35.12214204019852, 173.9675845897395 -35.114100049509716)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>173.9648504796977</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-35.12214204019852</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>173.9675845897395</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-35.11410004950972</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>173.9662175347186</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-35.11812104485412</v>
       </c>
     </row>
@@ -14588,27 +14597,28 @@
       <c r="P6" t="n">
         <v>324.1687214300657</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (173.96667672968783 -35.12238354524067, 173.96700211807206 -35.114038922355434)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>173.9666767296878</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-35.12238354524067</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>173.9670021180721</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-35.11403892235543</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>173.9668394238799</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-35.11821123379805</v>
       </c>
     </row>
@@ -14665,27 +14675,28 @@
       <c r="P7" t="n">
         <v>303.7192097205954</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (173.96808533057433 -35.122303719493814, 173.9671002507239 -35.1139940393488)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>173.9680853305743</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-35.12230371949381</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>173.9671002507239</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-35.1139940393488</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>173.9675927906491</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-35.11814887942131</v>
       </c>
     </row>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H330"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9987,6 +9987,90 @@
       <c r="H330" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="n">
+        <v>339.1066666666667</v>
+      </c>
+      <c r="F331" t="n">
+        <v>326.0472727272727</v>
+      </c>
+      <c r="G331" t="n">
+        <v>299.1733333333333</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>341.5446153846154</v>
+      </c>
+      <c r="C332" t="n">
+        <v>332.8</v>
+      </c>
+      <c r="D332" t="n">
+        <v>339.6746153846154</v>
+      </c>
+      <c r="E332" t="n">
+        <v>341.7133333333334</v>
+      </c>
+      <c r="F332" t="n">
+        <v>345.4281818181818</v>
+      </c>
+      <c r="G332" t="n">
+        <v>322.1266666666667</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>342.74</v>
+      </c>
+      <c r="C333" t="n">
+        <v>337.4514285714285</v>
+      </c>
+      <c r="D333" t="n">
+        <v>344.99</v>
+      </c>
+      <c r="E333" t="n">
+        <v>345.4566666666666</v>
+      </c>
+      <c r="F333" t="n">
+        <v>334.9354545454545</v>
+      </c>
+      <c r="G333" t="n">
+        <v>320.2633333333333</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10001,7 +10085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B408"/>
+  <dimension ref="A1:B412"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14089,6 +14173,46 @@
       </c>
       <c r="B408" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>-0.52</v>
       </c>
     </row>
   </sheetData>
@@ -14262,28 +14386,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0953653761678239</v>
+        <v>0.111151216156739</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K2" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004474971019332585</v>
+        <v>0.006101190997804373</v>
       </c>
       <c r="M2" t="n">
-        <v>7.57764166154958</v>
+        <v>7.602392369627428</v>
       </c>
       <c r="N2" t="n">
-        <v>99.5442233869271</v>
+        <v>99.74571286258629</v>
       </c>
       <c r="O2" t="n">
-        <v>9.977185143462414</v>
+        <v>9.987277550092733</v>
       </c>
       <c r="P2" t="n">
-        <v>328.2172296995006</v>
+        <v>328.0488324455003</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14340,28 +14464,28 @@
         <v>0.0764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1293920869511665</v>
+        <v>0.1417667179193641</v>
       </c>
       <c r="J3" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K3" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007066557350418723</v>
+        <v>0.00854466670397469</v>
       </c>
       <c r="M3" t="n">
-        <v>8.403162501836173</v>
+        <v>8.40370190756737</v>
       </c>
       <c r="N3" t="n">
-        <v>115.828957527453</v>
+        <v>115.6538712052579</v>
       </c>
       <c r="O3" t="n">
-        <v>10.76238623760795</v>
+        <v>10.7542489837858</v>
       </c>
       <c r="P3" t="n">
-        <v>322.5657465018196</v>
+        <v>322.4342558570023</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14418,28 +14542,28 @@
         <v>0.0741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1606180136879377</v>
+        <v>0.1784229002581507</v>
       </c>
       <c r="J4" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K4" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01227957666735313</v>
+        <v>0.01514108770075784</v>
       </c>
       <c r="M4" t="n">
-        <v>8.07578971813529</v>
+        <v>8.10980069391163</v>
       </c>
       <c r="N4" t="n">
-        <v>101.1457754410138</v>
+        <v>101.6613916038341</v>
       </c>
       <c r="O4" t="n">
-        <v>10.05712560531158</v>
+        <v>10.08272738914596</v>
       </c>
       <c r="P4" t="n">
-        <v>324.9040021898342</v>
+        <v>324.7135066165863</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14496,28 +14620,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01875600856131114</v>
+        <v>0.04408687869513823</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K5" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001711295989431649</v>
+        <v>0.0009479606741004121</v>
       </c>
       <c r="M5" t="n">
-        <v>7.868273907107361</v>
+        <v>7.911375993985689</v>
       </c>
       <c r="N5" t="n">
-        <v>99.60635881319561</v>
+        <v>100.2920775708005</v>
       </c>
       <c r="O5" t="n">
-        <v>9.980298533270215</v>
+        <v>10.01459323042132</v>
       </c>
       <c r="P5" t="n">
-        <v>328.5829425876294</v>
+        <v>328.3102785998886</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14574,28 +14698,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.004145799883214805</v>
+        <v>0.01800178527645337</v>
       </c>
       <c r="J6" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K6" t="n">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L6" t="n">
-        <v>5.968203361517155e-06</v>
+        <v>0.0001133174178430396</v>
       </c>
       <c r="M6" t="n">
-        <v>9.569567963229588</v>
+        <v>9.584885931098533</v>
       </c>
       <c r="N6" t="n">
-        <v>145.6187522710264</v>
+        <v>146.0460565620449</v>
       </c>
       <c r="O6" t="n">
-        <v>12.06725951784524</v>
+        <v>12.08495165741448</v>
       </c>
       <c r="P6" t="n">
-        <v>324.1687214300657</v>
+        <v>323.9357634435257</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14652,28 +14776,28 @@
         <v>0.0152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2908701210178344</v>
+        <v>0.2965351086233172</v>
       </c>
       <c r="J7" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K7" t="n">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L7" t="n">
-        <v>0.009495563521026207</v>
+        <v>0.01005183053919145</v>
       </c>
       <c r="M7" t="n">
-        <v>16.58937697958342</v>
+        <v>16.52490744236805</v>
       </c>
       <c r="N7" t="n">
-        <v>448.8172152652053</v>
+        <v>445.2421100576499</v>
       </c>
       <c r="O7" t="n">
-        <v>21.18530658888857</v>
+        <v>21.10076088812083</v>
       </c>
       <c r="P7" t="n">
-        <v>303.7192097205954</v>
+        <v>303.6596891001634</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14711,7 +14835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H330"/>
+  <dimension ref="A1:H333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27863,6 +27987,120 @@
         </is>
       </c>
     </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:28+00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
+      <c r="D331" t="inlineStr"/>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>-35.11919726374909,173.9658517054657</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>-35.11944528068574,173.96679130902186</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>-35.11961896089047,173.96776703864973</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:17:16+00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>-35.118222108734976,173.9633888727158</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>-35.118624691859175,173.96414734994804</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>-35.11890485626708,173.96499173751954</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>-35.11917462762143,173.96585940148148</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>-35.119270624256515,173.9667981196696</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>-35.11941297933628,173.9677426194392</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>-35.118212466715924,173.96339473462947</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>-35.118587173169814,173.96417015945025</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>-35.11886116396908,173.9650157063595</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>-35.11914212075178,173.96587045342528</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>-35.11936518237458,173.96679443242147</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>-35.11942970075544,173.96774460176624</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:H335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10071,6 +10071,66 @@
       <c r="H333" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>327.1961538461539</v>
+      </c>
+      <c r="C334" t="n">
+        <v>318.6185714285714</v>
+      </c>
+      <c r="D334" t="n">
+        <v>322.7761538461539</v>
+      </c>
+      <c r="E334" t="n">
+        <v>324.5366666666667</v>
+      </c>
+      <c r="F334" t="n">
+        <v>318.8490909090909</v>
+      </c>
+      <c r="G334" t="n">
+        <v>314.7233333333333</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>336.9438461538461</v>
+      </c>
+      <c r="C335" t="n">
+        <v>321.3542857142857</v>
+      </c>
+      <c r="D335" t="n">
+        <v>326.7738461538461</v>
+      </c>
+      <c r="E335" t="n">
+        <v>325.33</v>
+      </c>
+      <c r="F335" t="n">
+        <v>322.6072727272727</v>
+      </c>
+      <c r="G335" t="n">
+        <v>322.57</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10085,7 +10145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B412"/>
+  <dimension ref="A1:B414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14213,6 +14273,26 @@
       </c>
       <c r="B412" t="n">
         <v>-0.52</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.51</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14466,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.111151216156739</v>
+        <v>0.1127324379166821</v>
       </c>
       <c r="J2" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K2" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006101190997804373</v>
+        <v>0.006352611747730164</v>
       </c>
       <c r="M2" t="n">
-        <v>7.602392369627428</v>
+        <v>7.58391178547279</v>
       </c>
       <c r="N2" t="n">
-        <v>99.74571286258629</v>
+        <v>99.24434765386005</v>
       </c>
       <c r="O2" t="n">
-        <v>9.987277550092733</v>
+        <v>9.962145735425679</v>
       </c>
       <c r="P2" t="n">
-        <v>328.0488324455003</v>
+        <v>328.0318202815202</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14464,28 +14544,28 @@
         <v>0.0764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1417667179193641</v>
+        <v>0.1336399742355679</v>
       </c>
       <c r="J3" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K3" t="n">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00854466670397469</v>
+        <v>0.007688675856214466</v>
       </c>
       <c r="M3" t="n">
-        <v>8.40370190756737</v>
+        <v>8.391028106566326</v>
       </c>
       <c r="N3" t="n">
-        <v>115.6538712052579</v>
+        <v>115.1523140451433</v>
       </c>
       <c r="O3" t="n">
-        <v>10.7542489837858</v>
+        <v>10.73090462380238</v>
       </c>
       <c r="P3" t="n">
-        <v>322.4342558570023</v>
+        <v>322.5211514006173</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14542,28 +14622,28 @@
         <v>0.0741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1784229002581507</v>
+        <v>0.1723822549205012</v>
       </c>
       <c r="J4" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K4" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01514108770075784</v>
+        <v>0.01431857046445351</v>
       </c>
       <c r="M4" t="n">
-        <v>8.10980069391163</v>
+        <v>8.085906999577206</v>
       </c>
       <c r="N4" t="n">
-        <v>101.6613916038341</v>
+        <v>101.1617888429356</v>
       </c>
       <c r="O4" t="n">
-        <v>10.08272738914596</v>
+        <v>10.05792169600339</v>
       </c>
       <c r="P4" t="n">
-        <v>324.7135066165863</v>
+        <v>324.7785318489886</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14620,28 +14700,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04408687869513823</v>
+        <v>0.03825949756263151</v>
       </c>
       <c r="J5" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009479606741004121</v>
+        <v>0.0007226402982591917</v>
       </c>
       <c r="M5" t="n">
-        <v>7.911375993985689</v>
+        <v>7.890118284252891</v>
       </c>
       <c r="N5" t="n">
-        <v>100.2920775708005</v>
+        <v>99.78643453803035</v>
       </c>
       <c r="O5" t="n">
-        <v>10.01459323042132</v>
+        <v>9.989316019529582</v>
       </c>
       <c r="P5" t="n">
-        <v>328.3102785998886</v>
+        <v>328.3734369046967</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14698,28 +14778,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01800178527645337</v>
+        <v>0.01327683826238478</v>
       </c>
       <c r="J6" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K6" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001133174178430396</v>
+        <v>6.241753889135726e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.584885931098533</v>
+        <v>9.546482075845342</v>
       </c>
       <c r="N6" t="n">
-        <v>146.0460565620449</v>
+        <v>145.2037474999501</v>
       </c>
       <c r="O6" t="n">
-        <v>12.08495165741448</v>
+        <v>12.05005176337223</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9357634435257</v>
+        <v>323.9857924827374</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14776,28 +14856,28 @@
         <v>0.0152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2965351086233172</v>
+        <v>0.3067608231261035</v>
       </c>
       <c r="J7" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K7" t="n">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01005183053919145</v>
+        <v>0.01089179963698594</v>
       </c>
       <c r="M7" t="n">
-        <v>16.52490744236805</v>
+        <v>16.45664525957445</v>
       </c>
       <c r="N7" t="n">
-        <v>445.2421100576499</v>
+        <v>442.5665656276954</v>
       </c>
       <c r="O7" t="n">
-        <v>21.10076088812083</v>
+        <v>21.03726611581684</v>
       </c>
       <c r="P7" t="n">
-        <v>303.6596891001634</v>
+        <v>303.551813849824</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14835,7 +14915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H333"/>
+  <dimension ref="A1:H335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28101,6 +28181,90 @@
         </is>
       </c>
     </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:58+00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>-35.118337843965115,173.9633185107848</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>-35.1187390800488,173.9640778074595</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>-35.11904376107014,173.9649155365599</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>-35.11932378869385,173.9658086884015</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>-35.11951014909326,173.96678877950274</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>-35.11947941631598,173.96775049555959</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:52+00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>-35.11825921871687,173.96336631150254</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>-35.118717013628626,173.96409122279277</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>-35.119010900173905,173.96493356354878</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>-35.11931689943851,173.96581103067462</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>-35.119476281197834,173.9667901001689</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>-35.119409000894855,173.96774214779444</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H335"/>
+  <dimension ref="A1:H336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10129,6 +10129,36 @@
         <v>322.57</v>
       </c>
       <c r="H335" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>331.4346153846154</v>
+      </c>
+      <c r="C336" t="n">
+        <v>316.5328571428572</v>
+      </c>
+      <c r="D336" t="n">
+        <v>324.9046153846153</v>
+      </c>
+      <c r="E336" t="n">
+        <v>322.21</v>
+      </c>
+      <c r="F336" t="n">
+        <v>317.8245454545454</v>
+      </c>
+      <c r="G336" t="n">
+        <v>301.58</v>
+      </c>
+      <c r="H336" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10145,7 +10175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B414"/>
+  <dimension ref="A1:B415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14293,6 +14323,16 @@
       </c>
       <c r="B414" t="n">
         <v>-0.51</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -14466,28 +14506,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1127324379166821</v>
+        <v>0.1130632918962777</v>
       </c>
       <c r="J2" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006352611747730164</v>
+        <v>0.006434071507355865</v>
       </c>
       <c r="M2" t="n">
-        <v>7.58391178547279</v>
+        <v>7.560125267666717</v>
       </c>
       <c r="N2" t="n">
-        <v>99.24434765386005</v>
+        <v>98.91321092261826</v>
       </c>
       <c r="O2" t="n">
-        <v>9.962145735425679</v>
+        <v>9.94551209956623</v>
       </c>
       <c r="P2" t="n">
-        <v>328.0318202815202</v>
+        <v>328.0282593294658</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14544,28 +14584,28 @@
         <v>0.0764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1336399742355679</v>
+        <v>0.1273839616623035</v>
       </c>
       <c r="J3" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K3" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007688675856214466</v>
+        <v>0.007020885086589157</v>
       </c>
       <c r="M3" t="n">
-        <v>8.391028106566326</v>
+        <v>8.396243879369473</v>
       </c>
       <c r="N3" t="n">
-        <v>115.1523140451433</v>
+        <v>115.0654668186447</v>
       </c>
       <c r="O3" t="n">
-        <v>10.73090462380238</v>
+        <v>10.72685726662962</v>
       </c>
       <c r="P3" t="n">
-        <v>322.5211514006173</v>
+        <v>322.5882137149602</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14622,28 +14662,28 @@
         <v>0.0741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1723822549205012</v>
+        <v>0.1695142963044839</v>
       </c>
       <c r="J4" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K4" t="n">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01431857046445351</v>
+        <v>0.01393778995730888</v>
       </c>
       <c r="M4" t="n">
-        <v>8.085906999577206</v>
+        <v>8.073489212792458</v>
       </c>
       <c r="N4" t="n">
-        <v>101.1617888429356</v>
+        <v>100.8962758928611</v>
       </c>
       <c r="O4" t="n">
-        <v>10.05792169600339</v>
+        <v>10.0447138283209</v>
       </c>
       <c r="P4" t="n">
-        <v>324.7785318489886</v>
+        <v>324.8094852203782</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14700,28 +14740,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03825949756263151</v>
+        <v>0.03366252732926641</v>
       </c>
       <c r="J5" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K5" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007226402982591917</v>
+        <v>0.0005622781282218492</v>
       </c>
       <c r="M5" t="n">
-        <v>7.890118284252891</v>
+        <v>7.888404768263057</v>
       </c>
       <c r="N5" t="n">
-        <v>99.78643453803035</v>
+        <v>99.6319915991392</v>
       </c>
       <c r="O5" t="n">
-        <v>9.989316019529582</v>
+        <v>9.981582619962587</v>
       </c>
       <c r="P5" t="n">
-        <v>328.3734369046967</v>
+        <v>328.4233832385527</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14778,28 +14818,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01327683826238478</v>
+        <v>0.009108438220482049</v>
       </c>
       <c r="J6" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K6" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L6" t="n">
-        <v>6.241753889135726e-05</v>
+        <v>2.954363342888566e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.546482075845342</v>
+        <v>9.536503624468839</v>
       </c>
       <c r="N6" t="n">
-        <v>145.2037474999501</v>
+        <v>144.8683373527827</v>
       </c>
       <c r="O6" t="n">
-        <v>12.05005176337223</v>
+        <v>12.03612634333749</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9857924827374</v>
+        <v>324.03005335302</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14856,28 +14896,28 @@
         <v>0.0152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3067608231261035</v>
+        <v>0.2998934744527397</v>
       </c>
       <c r="J7" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K7" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01089179963698594</v>
+        <v>0.01048016583314948</v>
       </c>
       <c r="M7" t="n">
-        <v>16.45664525957445</v>
+        <v>16.43519329778548</v>
       </c>
       <c r="N7" t="n">
-        <v>442.5665656276954</v>
+        <v>441.3458549166016</v>
       </c>
       <c r="O7" t="n">
-        <v>21.03726611581684</v>
+        <v>21.00823302699686</v>
       </c>
       <c r="P7" t="n">
-        <v>303.551813849824</v>
+        <v>303.6244272415647</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14915,7 +14955,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H335"/>
+  <dimension ref="A1:H336"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28265,6 +28305,48 @@
         </is>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-06 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>-35.118303656379155,173.96333929535672</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>-35.11875590353266,173.96406757957658</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>-35.11902626518825,173.96492513453708</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>-35.119343993316384,173.9658018190437</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>-35.11951938206812,173.96678841946613</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>-35.11959736363841,173.9677644782789</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H336"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10159,6 +10159,36 @@
         <v>301.58</v>
       </c>
       <c r="H336" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>331.33</v>
+      </c>
+      <c r="C337" t="n">
+        <v>323.65</v>
+      </c>
+      <c r="D337" t="n">
+        <v>315.64</v>
+      </c>
+      <c r="E337" t="n">
+        <v>323.6566666666667</v>
+      </c>
+      <c r="F337" t="n">
+        <v>327.8045454545455</v>
+      </c>
+      <c r="G337" t="n">
+        <v>314.1933333333333</v>
+      </c>
+      <c r="H337" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10175,7 +10205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B415"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14333,6 +14363,16 @@
       </c>
       <c r="B415" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>-0.91</v>
       </c>
     </row>
   </sheetData>
@@ -14506,28 +14546,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1130632918962777</v>
+        <v>0.1133147599254177</v>
       </c>
       <c r="J2" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K2" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006434071507355865</v>
+        <v>0.006507190412079811</v>
       </c>
       <c r="M2" t="n">
-        <v>7.560125267666717</v>
+        <v>7.536114723609439</v>
       </c>
       <c r="N2" t="n">
-        <v>98.91321092261826</v>
+        <v>98.58395716629983</v>
       </c>
       <c r="O2" t="n">
-        <v>9.94551209956623</v>
+        <v>9.928945420652679</v>
       </c>
       <c r="P2" t="n">
-        <v>328.0282593294658</v>
+        <v>328.0255475023667</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14584,28 +14624,28 @@
         <v>0.0764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1273839616623035</v>
+        <v>0.1259096007647712</v>
       </c>
       <c r="J3" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K3" t="n">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007020885086589157</v>
+        <v>0.006906007204904419</v>
       </c>
       <c r="M3" t="n">
-        <v>8.396243879369473</v>
+        <v>8.376747320517435</v>
       </c>
       <c r="N3" t="n">
-        <v>115.0654668186447</v>
+        <v>114.7102957221924</v>
       </c>
       <c r="O3" t="n">
-        <v>10.72685726662962</v>
+        <v>10.71028924549624</v>
       </c>
       <c r="P3" t="n">
-        <v>322.5882137149602</v>
+        <v>322.6040489807618</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14662,28 +14702,28 @@
         <v>0.0741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1695142963044839</v>
+        <v>0.1605889394175488</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K4" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01393778995730888</v>
+        <v>0.01253885210344652</v>
       </c>
       <c r="M4" t="n">
-        <v>8.073489212792458</v>
+        <v>8.089564992334632</v>
       </c>
       <c r="N4" t="n">
-        <v>100.8962758928611</v>
+        <v>101.1565258082964</v>
       </c>
       <c r="O4" t="n">
-        <v>10.0447138283209</v>
+        <v>10.05766005631013</v>
       </c>
       <c r="P4" t="n">
-        <v>324.8094852203782</v>
+        <v>324.9060001408211</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14740,28 +14780,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03366252732926641</v>
+        <v>0.03005788858108275</v>
       </c>
       <c r="J5" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0005622781282218492</v>
+        <v>0.000450836863511328</v>
       </c>
       <c r="M5" t="n">
-        <v>7.888404768263057</v>
+        <v>7.881658503154731</v>
       </c>
       <c r="N5" t="n">
-        <v>99.6319915991392</v>
+        <v>99.41838762060813</v>
       </c>
       <c r="O5" t="n">
-        <v>9.981582619962587</v>
+        <v>9.970876973496772</v>
       </c>
       <c r="P5" t="n">
-        <v>328.4233832385527</v>
+        <v>328.4626239397879</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14818,28 +14858,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009108438220482049</v>
+        <v>0.01136359773831397</v>
       </c>
       <c r="J6" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K6" t="n">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L6" t="n">
-        <v>2.954363342888566e-05</v>
+        <v>4.627214382080247e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.536503624468839</v>
+        <v>9.517035097199845</v>
       </c>
       <c r="N6" t="n">
-        <v>144.8683373527827</v>
+        <v>144.4396340021314</v>
       </c>
       <c r="O6" t="n">
-        <v>12.03612634333749</v>
+        <v>12.01830412338328</v>
       </c>
       <c r="P6" t="n">
-        <v>324.03005335302</v>
+        <v>324.0060586940032</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14896,28 +14936,28 @@
         <v>0.0152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2998934744527397</v>
+        <v>0.3018210548794317</v>
       </c>
       <c r="J7" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K7" t="n">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01048016583314948</v>
+        <v>0.0106878219138945</v>
       </c>
       <c r="M7" t="n">
-        <v>16.43519329778548</v>
+        <v>16.3865965207415</v>
       </c>
       <c r="N7" t="n">
-        <v>441.3458549166016</v>
+        <v>439.8191026377207</v>
       </c>
       <c r="O7" t="n">
-        <v>21.00823302699686</v>
+        <v>20.97186454843061</v>
       </c>
       <c r="P7" t="n">
-        <v>303.6244272415647</v>
+        <v>303.6040035191796</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14955,7 +14995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H336"/>
+  <dimension ref="A1:H337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28347,6 +28387,48 @@
         </is>
       </c>
     </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>-35.118304500210726,173.96333878234393</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>-35.118698496271264,173.96410248045862</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>-35.11910242000809,173.964883357118</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>-35.119331430556855,173.96580609024934</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>-35.11942944453613,173.9667919265461</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>-35.11948417249773,173.96775105940662</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H337"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10189,6 +10189,64 @@
         <v>314.1933333333333</v>
       </c>
       <c r="H337" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>320.0369230769231</v>
+      </c>
+      <c r="C338" t="n">
+        <v>314.0457142857143</v>
+      </c>
+      <c r="D338" t="n">
+        <v>320.7269230769231</v>
+      </c>
+      <c r="E338" t="n">
+        <v>319.7166666666666</v>
+      </c>
+      <c r="F338" t="n">
+        <v>310.0154545454546</v>
+      </c>
+      <c r="G338" t="n">
+        <v>280.4533333333333</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="n">
+        <v>315.7071428571429</v>
+      </c>
+      <c r="D339" t="n">
+        <v>319.9969230769231</v>
+      </c>
+      <c r="E339" t="n">
+        <v>321.4666666666667</v>
+      </c>
+      <c r="F339" t="n">
+        <v>316.2963636363637</v>
+      </c>
+      <c r="G339" t="n">
+        <v>301.6933333333333</v>
+      </c>
+      <c r="H339" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -10205,7 +10263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14373,6 +14431,26 @@
       </c>
       <c r="B416" t="n">
         <v>-0.91</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -14546,28 +14624,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1133147599254177</v>
+        <v>0.1059217350495901</v>
       </c>
       <c r="J2" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K2" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006507190412079811</v>
+        <v>0.005707427814824029</v>
       </c>
       <c r="M2" t="n">
-        <v>7.536114723609439</v>
+        <v>7.548524830130559</v>
       </c>
       <c r="N2" t="n">
-        <v>98.58395716629983</v>
+        <v>98.64976845937647</v>
       </c>
       <c r="O2" t="n">
-        <v>9.928945420652679</v>
+        <v>9.932258980683924</v>
       </c>
       <c r="P2" t="n">
-        <v>328.0255475023667</v>
+        <v>328.1056614024155</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14624,28 +14702,28 @@
         <v>0.0764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1259096007647712</v>
+        <v>0.1115379465707967</v>
       </c>
       <c r="J3" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006906007204904419</v>
+        <v>0.005465282074145095</v>
       </c>
       <c r="M3" t="n">
-        <v>8.376747320517435</v>
+        <v>8.39612259479526</v>
       </c>
       <c r="N3" t="n">
-        <v>114.7102957221924</v>
+        <v>114.7403165371681</v>
       </c>
       <c r="O3" t="n">
-        <v>10.71028924549624</v>
+        <v>10.71169064794013</v>
       </c>
       <c r="P3" t="n">
-        <v>322.6040489807618</v>
+        <v>322.7592170797215</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14702,28 +14780,28 @@
         <v>0.0741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1605889394175488</v>
+        <v>0.1491995507346018</v>
       </c>
       <c r="J4" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01253885210344652</v>
+        <v>0.01093753705104061</v>
       </c>
       <c r="M4" t="n">
-        <v>8.089564992334632</v>
+        <v>8.091272418105019</v>
       </c>
       <c r="N4" t="n">
-        <v>101.1565258082964</v>
+        <v>100.9882927035739</v>
       </c>
       <c r="O4" t="n">
-        <v>10.05766005631013</v>
+        <v>10.04929314447409</v>
       </c>
       <c r="P4" t="n">
-        <v>324.9060001408211</v>
+        <v>325.0298082426373</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14780,28 +14858,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03005788858108275</v>
+        <v>0.01907852460620603</v>
       </c>
       <c r="J5" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000450836863511328</v>
+        <v>0.0001832151697133133</v>
       </c>
       <c r="M5" t="n">
-        <v>7.881658503154731</v>
+        <v>7.886384386737297</v>
       </c>
       <c r="N5" t="n">
-        <v>99.41838762060813</v>
+        <v>99.26134549628287</v>
       </c>
       <c r="O5" t="n">
-        <v>9.970876973496772</v>
+        <v>9.962998820449737</v>
       </c>
       <c r="P5" t="n">
-        <v>328.4626239397879</v>
+        <v>328.582774595965</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14858,28 +14936,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01136359773831397</v>
+        <v>-0.002728488322936414</v>
       </c>
       <c r="J6" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K6" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="L6" t="n">
-        <v>4.627214382080247e-05</v>
+        <v>2.687187275363101e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>9.517035097199845</v>
+        <v>9.526505419437042</v>
       </c>
       <c r="N6" t="n">
-        <v>144.4396340021314</v>
+        <v>144.3576178564301</v>
       </c>
       <c r="O6" t="n">
-        <v>12.01830412338328</v>
+        <v>12.01489150414726</v>
       </c>
       <c r="P6" t="n">
-        <v>324.0060586940032</v>
+        <v>324.1568112198515</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -14936,28 +15014,28 @@
         <v>0.0152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3018210548794317</v>
+        <v>0.2740143908548042</v>
       </c>
       <c r="J7" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K7" t="n">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0106878219138945</v>
+        <v>0.008877579262410062</v>
       </c>
       <c r="M7" t="n">
-        <v>16.3865965207415</v>
+        <v>16.42087676005163</v>
       </c>
       <c r="N7" t="n">
-        <v>439.8191026377207</v>
+        <v>440.3773595656124</v>
       </c>
       <c r="O7" t="n">
-        <v>20.97186454843061</v>
+        <v>20.98516999134418</v>
       </c>
       <c r="P7" t="n">
-        <v>303.6040035191796</v>
+        <v>303.9002089029939</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -14995,7 +15073,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H337"/>
+  <dimension ref="A1:H339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28429,6 +28507,86 @@
         </is>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:18+00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>-35.11839559057473,173.9632834033029</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>-35.11877596495991,173.96405538317103</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>-35.119060605677085,173.96490629585816</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>-35.119365645260984,173.96579445760793</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>-35.11958975585112,173.96678567526334</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>-35.11978695280707,173.96778695427216</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>-35.11876256378835,173.96406353045467</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>-35.119066606252,173.96490300403067</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>-35.119350448374774,173.96579962439145</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>-35.119533153701376,173.96678788244603</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>-35.1195963465933,173.96776435770744</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10249,6 +10249,66 @@
       <c r="H339" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>329.1646153846153</v>
+      </c>
+      <c r="C340" t="n">
+        <v>316.46</v>
+      </c>
+      <c r="D340" t="n">
+        <v>320.4846153846154</v>
+      </c>
+      <c r="E340" t="n">
+        <v>315.8233333333334</v>
+      </c>
+      <c r="F340" t="n">
+        <v>318.3981818181818</v>
+      </c>
+      <c r="G340" t="n">
+        <v>324.6666666666667</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>324.7784615384616</v>
+      </c>
+      <c r="C341" t="n">
+        <v>309.6557142857143</v>
+      </c>
+      <c r="D341" t="n">
+        <v>316.3884615384616</v>
+      </c>
+      <c r="E341" t="n">
+        <v>311.8933333333333</v>
+      </c>
+      <c r="F341" t="n">
+        <v>312.5363636363636</v>
+      </c>
+      <c r="G341" t="n">
+        <v>320.8266666666667</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -10263,7 +10323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B418"/>
+  <dimension ref="A1:B420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14451,6 +14511,26 @@
       </c>
       <c r="B418" t="n">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>-0.68</v>
       </c>
     </row>
   </sheetData>
@@ -14624,28 +14704,28 @@
         <v>0.0697</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1059217350495901</v>
+        <v>0.100693021112527</v>
       </c>
       <c r="J2" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K2" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L2" t="n">
-        <v>0.005707427814824029</v>
+        <v>0.005226099207447654</v>
       </c>
       <c r="M2" t="n">
-        <v>7.548524830130559</v>
+        <v>7.524710208823158</v>
       </c>
       <c r="N2" t="n">
-        <v>98.64976845937647</v>
+        <v>98.12886709898869</v>
       </c>
       <c r="O2" t="n">
-        <v>9.932258980683924</v>
+        <v>9.906001569704534</v>
       </c>
       <c r="P2" t="n">
-        <v>328.1056614024155</v>
+        <v>328.1626238757372</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -14702,28 +14782,28 @@
         <v>0.0764</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1115379465707967</v>
+        <v>0.09522372944334986</v>
       </c>
       <c r="J3" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K3" t="n">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L3" t="n">
-        <v>0.005465282074145095</v>
+        <v>0.004006246289449233</v>
       </c>
       <c r="M3" t="n">
-        <v>8.39612259479526</v>
+        <v>8.425520226990209</v>
       </c>
       <c r="N3" t="n">
-        <v>114.7403165371681</v>
+        <v>115.0770283101937</v>
       </c>
       <c r="O3" t="n">
-        <v>10.71169064794013</v>
+        <v>10.72739615704546</v>
       </c>
       <c r="P3" t="n">
-        <v>322.7592170797215</v>
+        <v>322.9361680270345</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -14780,28 +14860,28 @@
         <v>0.0741</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1491995507346018</v>
+        <v>0.135638361833875</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K4" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01093753705104061</v>
+        <v>0.009114919301531854</v>
       </c>
       <c r="M4" t="n">
-        <v>8.091272418105019</v>
+        <v>8.103592935586201</v>
       </c>
       <c r="N4" t="n">
-        <v>100.9882927035739</v>
+        <v>101.0587607470016</v>
       </c>
       <c r="O4" t="n">
-        <v>10.04929314447409</v>
+        <v>10.05279865246497</v>
       </c>
       <c r="P4" t="n">
-        <v>325.0298082426373</v>
+        <v>325.1778777282271</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14858,28 +14938,28 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01907852460620603</v>
+        <v>-5.958828851433739e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K5" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001832151697133133</v>
+        <v>1.785097625273124e-09</v>
       </c>
       <c r="M5" t="n">
-        <v>7.886384386737297</v>
+        <v>7.932166058454494</v>
       </c>
       <c r="N5" t="n">
-        <v>99.26134549628287</v>
+        <v>100.0782440779278</v>
       </c>
       <c r="O5" t="n">
-        <v>9.962998820449737</v>
+        <v>10.00391143892867</v>
       </c>
       <c r="P5" t="n">
-        <v>328.582774595965</v>
+        <v>328.7931466420275</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -14936,28 +15016,28 @@
         <v>0.06270000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.002728488322936414</v>
+        <v>-0.01352868436748005</v>
       </c>
       <c r="J6" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K6" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L6" t="n">
-        <v>2.687187275363101e-06</v>
+        <v>6.668496763828635e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>9.526505419437042</v>
+        <v>9.520003452356928</v>
       </c>
       <c r="N6" t="n">
-        <v>144.3576178564301</v>
+        <v>143.9555363745845</v>
       </c>
       <c r="O6" t="n">
-        <v>12.01489150414726</v>
+        <v>11.99814720590577</v>
       </c>
       <c r="P6" t="n">
-        <v>324.1568112198515</v>
+        <v>324.2729278064427</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15014,28 +15094,28 @@
         <v>0.0152</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2740143908548042</v>
+        <v>0.2897751736321749</v>
       </c>
       <c r="J7" t="n">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K7" t="n">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L7" t="n">
-        <v>0.008877579262410062</v>
+        <v>0.01003513212465956</v>
       </c>
       <c r="M7" t="n">
-        <v>16.42087676005163</v>
+        <v>16.38232736017826</v>
       </c>
       <c r="N7" t="n">
-        <v>440.3773595656124</v>
+        <v>438.2736390288508</v>
       </c>
       <c r="O7" t="n">
-        <v>20.98516999134418</v>
+        <v>20.9349860049834</v>
       </c>
       <c r="P7" t="n">
-        <v>303.9002089029939</v>
+        <v>303.7315345440142</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -15073,7 +15153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H339"/>
+  <dimension ref="A1:H341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28587,6 +28667,90 @@
         </is>
       </c>
     </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:35+00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>-35.11832196628269,173.9633281637306</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>-35.118756491202284,173.96406722230114</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>-35.119062597438,173.96490520320737</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>-35.11939945471369,173.96578296273807</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>-35.11951421258531,173.96678862104827</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>-35.119390185559034,173.96773991723458</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>-35.11835734515824,173.96330665489518</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>-35.118811374931695,173.9640338555552</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>-35.11909626768051,173.96488673219793</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>-35.11943358257619,173.96577135960246</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>-35.119567037981554,173.96678656113966</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>-35.11942464544268,173.96774400245798</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -14695,13 +14695,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.065</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0573</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0697</v>
+        <v>0.1477</v>
       </c>
       <c r="I2" t="n">
         <v>0.1007126002135362</v>
@@ -14773,13 +14773,13 @@
         <v>0.2004795748693764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06279999999999999</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0764</v>
+        <v>0.1702</v>
       </c>
       <c r="I3" t="n">
         <v>0.095231654036856</v>
@@ -14851,13 +14851,13 @@
         <v>0.4009591497520775</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.13</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0621</v>
+        <v>0.0988</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0741</v>
+        <v>0.1865</v>
       </c>
       <c r="I4" t="n">
         <v>0.1356573711416962</v>
@@ -14929,13 +14929,13 @@
         <v>0.5999478388014008</v>
       </c>
       <c r="F5" t="n">
-        <v>0.075</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06809999999999999</v>
+        <v>0.051</v>
       </c>
       <c r="H5" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.1184</v>
       </c>
       <c r="I5" t="n">
         <v>-3.51067232265812e-05</v>
@@ -15007,13 +15007,13 @@
         <v>0.7995204251213109</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0507</v>
+        <v>0.0528</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06270000000000001</v>
+        <v>0.1219</v>
       </c>
       <c r="I6" t="n">
         <v>-0.01350067505887066</v>
@@ -15085,13 +15085,13 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
       <c r="G7" t="n">
-        <v>0.015</v>
+        <v>0.0196</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0152</v>
+        <v>0.0251</v>
       </c>
       <c r="I7" t="n">
         <v>0.289757235079875</v>

--- a/data/nzd0056/nzd0056.xlsx
+++ b/data/nzd0056/nzd0056.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H342"/>
+  <dimension ref="A1:H343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10697,6 +10697,36 @@
       <c r="H342" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>329.52</v>
+      </c>
+      <c r="C343" t="n">
+        <v>319.44</v>
+      </c>
+      <c r="D343" t="n">
+        <v>322.76</v>
+      </c>
+      <c r="E343" t="n">
+        <v>318.56</v>
+      </c>
+      <c r="F343" t="n">
+        <v>320.3</v>
+      </c>
+      <c r="G343" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -10711,7 +10741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B421"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14929,6 +14959,16 @@
       </c>
       <c r="B421" t="n">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>-0.44</v>
       </c>
     </row>
   </sheetData>
@@ -15096,34 +15136,34 @@
         <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0733</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1472</v>
+        <v>0.1478</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08888182184674658</v>
+        <v>0.0885567975730473</v>
       </c>
       <c r="J2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0121477586304517</v>
+        <v>0.01213396493796193</v>
       </c>
       <c r="M2" t="n">
-        <v>4.528995201598741</v>
+        <v>4.517158408995864</v>
       </c>
       <c r="N2" t="n">
-        <v>32.74854453472668</v>
+        <v>32.6530935080571</v>
       </c>
       <c r="O2" t="n">
-        <v>5.722634405125552</v>
+        <v>5.714288539097155</v>
       </c>
       <c r="P2" t="n">
-        <v>327.7239996972164</v>
+        <v>327.7275786893297</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -15177,31 +15217,31 @@
         <v>0.0945</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1692</v>
+        <v>0.1687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08987600791673672</v>
+        <v>0.08677652583747737</v>
       </c>
       <c r="J3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K3" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L3" t="n">
-        <v>0.008094183042612668</v>
+        <v>0.00758461257371601</v>
       </c>
       <c r="M3" t="n">
-        <v>5.708154773022525</v>
+        <v>5.706574987857299</v>
       </c>
       <c r="N3" t="n">
-        <v>50.20215519049969</v>
+        <v>50.13374942649098</v>
       </c>
       <c r="O3" t="n">
-        <v>7.085347923038055</v>
+        <v>7.080519008271285</v>
       </c>
       <c r="P3" t="n">
-        <v>322.2804341957066</v>
+        <v>322.3146175737142</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -15255,31 +15295,31 @@
         <v>0.0985</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1854</v>
+        <v>0.1848</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1324504087889116</v>
+        <v>0.1294740090411682</v>
       </c>
       <c r="J4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K4" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01950105438172223</v>
+        <v>0.01873495037601414</v>
       </c>
       <c r="M4" t="n">
-        <v>5.365082591472172</v>
+        <v>5.364446176293489</v>
       </c>
       <c r="N4" t="n">
-        <v>44.73351677673449</v>
+        <v>44.67499942381242</v>
       </c>
       <c r="O4" t="n">
-        <v>6.688311952707835</v>
+        <v>6.683935923077989</v>
       </c>
       <c r="P4" t="n">
-        <v>324.2695112793987</v>
+        <v>324.3023372145315</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -15330,34 +15370,34 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0511</v>
+        <v>0.0513</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1192</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.002176668279240558</v>
+        <v>-0.008445370724820669</v>
       </c>
       <c r="J5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K5" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L5" t="n">
-        <v>4.676101179157399e-06</v>
+        <v>7.038803299630469e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.808764707350072</v>
+        <v>5.820777896812672</v>
       </c>
       <c r="N5" t="n">
-        <v>51.38495311745874</v>
+        <v>51.55533562090994</v>
       </c>
       <c r="O5" t="n">
-        <v>7.168329869464626</v>
+        <v>7.180204427515274</v>
       </c>
       <c r="P5" t="n">
-        <v>329.135803290611</v>
+        <v>329.2049391719729</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -15408,34 +15448,34 @@
         <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0529</v>
+        <v>0.0531</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1222</v>
+        <v>0.1227</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0310706908889853</v>
+        <v>-0.03308079114541877</v>
       </c>
       <c r="J6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K6" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L6" t="n">
-        <v>0.000769898323698448</v>
+        <v>0.0008776280413999027</v>
       </c>
       <c r="M6" t="n">
-        <v>6.445999150281158</v>
+        <v>6.436768729936335</v>
       </c>
       <c r="N6" t="n">
-        <v>63.5435324059322</v>
+        <v>63.39070006497318</v>
       </c>
       <c r="O6" t="n">
-        <v>7.971419723357452</v>
+        <v>7.961827683702604</v>
       </c>
       <c r="P6" t="n">
-        <v>324.4882970724556</v>
+        <v>324.5104659429771</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -15492,28 +15532,28 @@
         <v>0.0252</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4021425188434265</v>
+        <v>0.4036377421728674</v>
       </c>
       <c r="J7" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K7" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04999460697833302</v>
+        <v>0.05064002572988868</v>
       </c>
       <c r="M7" t="n">
-        <v>9.481916340727</v>
+        <v>9.460376900262123</v>
       </c>
       <c r="N7" t="n">
-        <v>156.3675818604354</v>
+        <v>155.9260229749701</v>
       </c>
       <c r="O7" t="n">
-        <v>12.50470238991858</v>
+        <v>12.48703419451433</v>
       </c>
       <c r="P7" t="n">
-        <v>302.6125723171293</v>
+        <v>302.5960859758491</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -15555,7 +15595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H342"/>
+  <dimension ref="A1:H343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29911,6 +29951,48 @@
         </is>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-13 22:11:40+00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>-35.118319099737384,173.96332990646602</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>-35.118732454361435,173.96408183556292</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>-35.119043893854204,173.96491546371655</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>-35.11937568967898,173.96579104260903</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>-35.11949707382452,173.96678928936814</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>-35.1194706517798,173.96774945652083</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
